--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="پرسشنامه" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -339,7 +339,19 @@
     <t>فضای بازی عمومی و مواد مورد استفاده</t>
   </si>
   <si>
-    <t>بعد از تعطیلات ارسال میکنه</t>
+    <t>10 پیاده شده</t>
+  </si>
+  <si>
+    <t>9 تا مانده</t>
+  </si>
+  <si>
+    <t>13 فروردین</t>
+  </si>
+  <si>
+    <t>4 تا پیاده شده</t>
+  </si>
+  <si>
+    <t>4 تا مانده</t>
   </si>
 </sst>
 </file>
@@ -445,36 +457,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,6 +507,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,424 +818,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="23"/>
-    <col min="2" max="3" width="8.796875" style="4"/>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" style="4"/>
-    <col min="11" max="11" width="10.19921875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.69921875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="17"/>
+    <col min="2" max="3" width="8.796875" style="3"/>
+    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="3"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.796875" style="3"/>
+    <col min="11" max="11" width="10.19921875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14">
+      <c r="A1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8">
         <v>2</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="8">
         <v>4</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="8">
         <v>5</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="8">
         <v>6</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="8">
         <v>7</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="8">
         <v>8</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="8">
         <v>9</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="8">
         <v>10</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="8">
         <v>11</v>
       </c>
-      <c r="N1" s="14">
+      <c r="N1" s="8">
         <v>12</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="8">
         <v>13</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="8">
         <v>14</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="8">
         <v>15</v>
       </c>
-      <c r="R1" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="R1" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>17</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="20">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="14">
         <f>SUM(C3:R3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
         <f t="shared" ref="S4:S24" si="0">SUM(C4:R4)</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S6" s="20">
+      <c r="S6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S7" s="20">
+      <c r="S7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S8" s="20">
+      <c r="S8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S9" s="20">
+      <c r="S9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S10" s="20">
+      <c r="S10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S11" s="20">
+      <c r="S11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S12" s="20">
+      <c r="S12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S13" s="20">
+      <c r="S13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S14" s="20">
+      <c r="S14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S15" s="20">
+      <c r="S15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S16" s="20">
+      <c r="S16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S17" s="20">
+      <c r="S17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S18" s="20">
+      <c r="S18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S19" s="20">
+      <c r="S19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S20" s="20">
+      <c r="S20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="20">
+      <c r="S21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S22" s="20">
+      <c r="S22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S23" s="20">
+      <c r="S23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S24" s="20">
+      <c r="S24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1231,608 +1248,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="3"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="8"/>
-    <col min="15" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="4"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="21"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="19">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="L2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="L3" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="19">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="L4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="19">
         <v>3.125E-2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="L5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19">
         <v>9.375E-2</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="L6" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="19">
         <v>4.3055555555555562E-2</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="L7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="19">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="L8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="19">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="L9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="24">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="L13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>17</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="19">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="L15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>17</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="19">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="L16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="19">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="L17" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="19">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="L18" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="19">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="L19" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="19">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="J21" s="6">
+      <c r="L20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="19">
         <f>SUM(J2:J20)</f>
         <v>0.67013888888888895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1843,252 +1886,265 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="2"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.09765625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="L2" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="L3" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="L4" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="L5" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="23" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2157,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -2156,7 +2212,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
@@ -2174,7 +2230,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -2194,7 +2250,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>74</v>

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDB70D-197D-4475-A930-30FE9FCFABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="پرسشنامه" sheetId="4" r:id="rId1"/>
@@ -12,17 +13,26 @@
     <sheet name="متخصصین " sheetId="2" r:id="rId3"/>
     <sheet name="معلمان" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="112">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -252,9 +262,6 @@
     <t>عبدالحسینی</t>
   </si>
   <si>
-    <t>60 دقیقه</t>
-  </si>
-  <si>
     <t>29 سال</t>
   </si>
   <si>
@@ -352,17 +359,26 @@
   </si>
   <si>
     <t>4 تا مانده</t>
+  </si>
+  <si>
+    <t>طوسی</t>
+  </si>
+  <si>
+    <t>راحمی</t>
+  </si>
+  <si>
+    <t>4 ساعت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -527,6 +543,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -815,30 +840,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="17"/>
-    <col min="2" max="3" width="8.796875" style="3"/>
-    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.796875" style="3"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" style="3"/>
-    <col min="11" max="11" width="10.19921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="17"/>
+    <col min="2" max="3" width="8.77734375" style="3"/>
+    <col min="4" max="4" width="11.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.77734375" style="3"/>
+    <col min="11" max="11" width="10.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="11" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.69921875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="3"/>
+    <col min="13" max="13" width="11.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8">
@@ -890,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -898,55 +923,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -1006,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
@@ -1066,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -1126,115 +1151,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1247,30 +1272,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="4"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="21"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="21"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1301,20 +1326,20 @@
       <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="N1" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1343,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1354,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -1378,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1407,10 +1432,10 @@
         <v>21</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1427,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -1439,10 +1464,10 @@
         <v>23</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1471,7 +1496,10 @@
         <v>26</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1497,10 +1525,10 @@
         <v>28</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1526,10 +1554,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1561,10 +1589,10 @@
         <v>32</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1635,7 +1663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1664,13 +1692,13 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1719,10 +1747,10 @@
         <v>44</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1748,10 +1776,10 @@
         <v>46</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1777,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1803,7 +1831,7 @@
         <v>51</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1829,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1855,60 +1883,73 @@
         <v>55</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="J21" s="19">
-        <f>SUM(J2:J20)</f>
-        <v>0.67013888888888895</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="19"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>107</v>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" s="1">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1959,7 @@
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1930,7 +1971,7 @@
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1940,13 +1981,13 @@
         <v>56</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1966,10 +2007,10 @@
         <v>58</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>21</v>
       </c>
@@ -1992,10 +2033,10 @@
         <v>58</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>22</v>
       </c>
@@ -2014,17 +2055,17 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>23</v>
       </c>
@@ -2041,10 +2082,10 @@
         <v>50</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>24</v>
       </c>
@@ -2063,14 +2104,17 @@
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="27">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>25</v>
       </c>
@@ -2086,8 +2130,11 @@
       <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="27">
+        <v>3.0150462962962962E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>26</v>
       </c>
@@ -2107,7 +2154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>27</v>
       </c>
@@ -2118,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -2129,22 +2176,45 @@
       <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>76</v>
+      <c r="I9" s="27">
+        <v>4.0972222222222222E-2</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="27">
+        <f>SUM(I2:I10)</f>
+        <v>0.12528935185185186</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2153,26 +2223,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="2"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="2"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="2"/>
+    <col min="11" max="11" width="13.21875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDB70D-197D-4475-A930-30FE9FCFABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="پرسشنامه" sheetId="4" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1890,6 +1890,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2226,13 +2229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035B6020-DBD0-418D-A8A1-2F9BCA334828}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="پرسشنامه" sheetId="4" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -553,6 +553,9 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1901,6 +1904,12 @@
       </c>
       <c r="J21" s="19"/>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="28">
+        <f>SUM(J2:J21)</f>
+        <v>0.67013888888888895</v>
+      </c>
+    </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J24" s="1" t="s">
         <v>104</v>
@@ -1933,7 +1942,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1992,7 +2001,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>57</v>
@@ -2015,13 +2024,13 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -2041,7 +2050,7 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
@@ -2070,7 +2079,7 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>64</v>
@@ -2090,7 +2099,7 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>65</v>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>68</v>
@@ -2139,7 +2148,7 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
@@ -2159,7 +2168,7 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>75</v>
@@ -2187,6 +2196,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>29</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2229,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -2285,7 +2297,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
@@ -2303,7 +2315,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -2323,7 +2335,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>74</v>

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035B6020-DBD0-418D-A8A1-2F9BCA334828}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832FF4DE-49B9-4BD9-BFF5-0F01B783CB7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="118">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -368,6 +368,24 @@
   </si>
   <si>
     <t>4 ساعت</t>
+  </si>
+  <si>
+    <t>23 سال</t>
+  </si>
+  <si>
+    <t>24 سال</t>
+  </si>
+  <si>
+    <t>17 سال</t>
+  </si>
+  <si>
+    <t>5 سال</t>
+  </si>
+  <si>
+    <t>19 سال</t>
+  </si>
+  <si>
+    <t>32 سال</t>
   </si>
 </sst>
 </file>
@@ -579,6 +597,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1314,7 +1336,7 @@
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -1390,6 +1412,12 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1422,6 +1450,12 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1454,6 +1488,9 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
@@ -1485,6 +1522,12 @@
       </c>
       <c r="D6" s="1">
         <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>25</v>

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832FF4DE-49B9-4BD9-BFF5-0F01B783CB7E}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358B353E-709D-4BCE-ABC7-41E21363FF6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -386,6 +386,51 @@
   </si>
   <si>
     <t>32 سال</t>
+  </si>
+  <si>
+    <t>علیزاده</t>
+  </si>
+  <si>
+    <t>34 سال</t>
+  </si>
+  <si>
+    <t>6 سال</t>
+  </si>
+  <si>
+    <t>10 سال</t>
+  </si>
+  <si>
+    <t>35 سال</t>
+  </si>
+  <si>
+    <t>28 سال</t>
+  </si>
+  <si>
+    <t>16 سال</t>
+  </si>
+  <si>
+    <t>36 سال</t>
+  </si>
+  <si>
+    <t>30 سال</t>
+  </si>
+  <si>
+    <t>20 سال</t>
+  </si>
+  <si>
+    <t>27 سال</t>
+  </si>
+  <si>
+    <t>لیسانس</t>
+  </si>
+  <si>
+    <t>روانشناسی کودکان</t>
+  </si>
+  <si>
+    <t>26 سال</t>
+  </si>
+  <si>
+    <t>12 سال</t>
   </si>
 </sst>
 </file>
@@ -491,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -574,6 +619,9 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,6 +648,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1300,20 +1352,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="26" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="4"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
@@ -1330,13 +1382,13 @@
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -1345,7 +1397,7 @@
       <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="18" t="s">
@@ -1374,10 +1426,10 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1406,13 +1458,13 @@
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1421,7 +1473,7 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1444,13 +1496,13 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1482,16 +1534,16 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1517,13 +1569,13 @@
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1555,11 +1607,20 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
@@ -1584,11 +1645,20 @@
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -1613,16 +1683,22 @@
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1648,10 +1724,10 @@
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1669,10 +1745,10 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1690,13 +1766,19 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1709,7 +1791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1722,13 +1804,16 @@
       <c r="D13" s="4">
         <v>8</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="26" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1754,11 +1839,17 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>16</v>
@@ -1777,11 +1868,14 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>16</v>
@@ -1806,11 +1900,23 @@
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
@@ -1835,10 +1941,10 @@
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>17</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1861,10 +1967,10 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>17</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1887,10 +1993,10 @@
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1913,11 +2019,17 @@
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>16</v>
@@ -1946,6 +2058,26 @@
         <v>16</v>
       </c>
       <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J23" s="28">
@@ -1985,13 +2117,13 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
@@ -2044,7 +2176,7 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>57</v>
@@ -2067,7 +2199,7 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -2093,7 +2225,7 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
@@ -2122,7 +2254,7 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>64</v>
@@ -2142,7 +2274,7 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>65</v>
@@ -2171,7 +2303,7 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>68</v>
@@ -2191,7 +2323,7 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
@@ -2211,7 +2343,7 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>75</v>
@@ -2239,10 +2371,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="1" t="s">

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{281205F0-7139-41BD-8EA2-B0CD2F514ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358B353E-709D-4BCE-ABC7-41E21363FF6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C650922-AFB7-4E87-8B51-E51D97D6AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,8 @@
     <sheet name="پرسشنامه" sheetId="4" r:id="rId1"/>
     <sheet name="مدیران" sheetId="1" r:id="rId2"/>
     <sheet name="متخصصین " sheetId="2" r:id="rId3"/>
-    <sheet name="معلمان" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="معلمان" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="154">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -431,6 +432,69 @@
   </si>
   <si>
     <t>12 سال</t>
+  </si>
+  <si>
+    <t>33 سال</t>
+  </si>
+  <si>
+    <t>9 سال</t>
+  </si>
+  <si>
+    <t>37 سال</t>
+  </si>
+  <si>
+    <t>تعلیم و تربیت کودکان پیش‌دبستان</t>
+  </si>
+  <si>
+    <t>روانشناسی</t>
+  </si>
+  <si>
+    <t>کارشناسی</t>
+  </si>
+  <si>
+    <t>مشاوره</t>
+  </si>
+  <si>
+    <t>برنامه‌ریزی درسی</t>
+  </si>
+  <si>
+    <t>تحقیقات آموزشی</t>
+  </si>
+  <si>
+    <t>25 سال</t>
+  </si>
+  <si>
+    <t>فائزون</t>
+  </si>
+  <si>
+    <t>شهید چراغی</t>
+  </si>
+  <si>
+    <t>مدیریت و برنامه‌ریزی آموزشی</t>
+  </si>
+  <si>
+    <t>علوم تربیتی</t>
+  </si>
+  <si>
+    <t>نامرتبط</t>
+  </si>
+  <si>
+    <t>کامل نیا</t>
+  </si>
+  <si>
+    <t>آموزشی</t>
+  </si>
+  <si>
+    <t>متخصصین معماری</t>
+  </si>
+  <si>
+    <t>متخصصین آموزشی</t>
+  </si>
+  <si>
+    <t>ایمیلی</t>
+  </si>
+  <si>
+    <t>کارشناسی ارشد</t>
   </si>
 </sst>
 </file>
@@ -536,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -623,6 +687,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,6 +712,2797 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" b="1">
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>نمودار رشته‌ی تحصیلی مدیران مدرسه</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>مدیریت و برنامه‌ریزی آموزشی</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>علوم تربیتی</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>نامرتبط</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A069-4ECD-AC01-E3D38C1D9C09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" b="1">
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>نمودار جمعیت‌شناختی متخصصین</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>متخصصین معماری</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متخصصین آموزشی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D35-42EC-9658-A3C90B012412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+                <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>مدرک تحصیلی مدیران مدرسه</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>کارشناسی</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>کارشناسی ارشد</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>دکترا</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B7A-4903-95B1-756C29375313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRNazanin" panose="02000506000000020002" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D054BA1C-328E-2901-BFD4-CCB17BE05380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EDE769-33DE-6BD1-AD8E-557134EA2B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B55DC2-D331-D2AF-1AEA-EF7FACA42F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1432,8 +4290,17 @@
       <c r="D2" s="4">
         <v>5</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -1511,6 +4378,9 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1584,6 +4454,9 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H6" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1619,6 +4492,9 @@
       <c r="F7" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H7" s="26" t="s">
         <v>87</v>
       </c>
@@ -1730,6 +4606,18 @@
       <c r="D10" s="4">
         <v>6</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1751,6 +4639,18 @@
       <c r="D11" s="4">
         <v>8</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1778,6 +4678,9 @@
       <c r="F12" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H12" s="26" t="s">
         <v>39</v>
       </c>
@@ -1874,8 +4777,17 @@
       <c r="D15" s="4">
         <v>17</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>127</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>16</v>
@@ -1947,6 +4859,18 @@
       <c r="D17" s="4">
         <v>17</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1973,6 +4897,18 @@
       <c r="D18" s="4">
         <v>17</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>50</v>
       </c>
@@ -1999,6 +4935,18 @@
       <c r="D19" s="4">
         <v>2</v>
       </c>
+      <c r="E19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>136</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2031,6 +4979,12 @@
       <c r="F20" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>16</v>
       </c>
@@ -2054,10 +5008,16 @@
       <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="19"/>
+      <c r="K21" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
@@ -2075,8 +5035,17 @@
       <c r="F22" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="G22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -2114,10 +5083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -2187,8 +5156,14 @@
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="I2" s="24">
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>58</v>
@@ -2216,6 +5191,9 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
@@ -2242,6 +5220,9 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I4" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="J4" s="26" t="s">
         <v>63</v>
       </c>
@@ -2265,8 +5246,14 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="I5" s="24">
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>85</v>
@@ -2311,8 +5298,14 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>50</v>
@@ -2340,6 +5333,9 @@
       <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="I8" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -2377,23 +5373,46 @@
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="21" t="s">
         <v>14</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="27">
         <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="27">
         <f>SUM(I2:I10)</f>
-        <v>0.12528935185185186</v>
+        <v>0.25723379629629634</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2405,6 +5424,18 @@
       </c>
       <c r="K13" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="30">
+        <f>I12-I6-I8-I5</f>
+        <v>0.1891782407407408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="28">
+        <f>I5+I6+I8</f>
+        <v>6.8055555555555564E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2413,6 +5444,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2D9F06-9A40-44FA-A5BA-64E5DC0107B7}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="14" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C650922-AFB7-4E87-8B51-E51D97D6AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{29D20706-71AD-4D19-B36B-3F91F4E5E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DA0E14-9B71-424C-A31E-3908B6BAD745}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="163">
   <si>
     <t>سابقه کار در آموزش و پرورش</t>
   </si>
@@ -495,6 +495,33 @@
   </si>
   <si>
     <t>کارشناسی ارشد</t>
+  </si>
+  <si>
+    <t>مدیر دبیرستان فرزندگان مشهد</t>
+  </si>
+  <si>
+    <t>فلسفه</t>
+  </si>
+  <si>
+    <t>نجفی</t>
+  </si>
+  <si>
+    <t>محراب مدنی</t>
+  </si>
+  <si>
+    <t>پرتویی</t>
+  </si>
+  <si>
+    <t>22 سال</t>
+  </si>
+  <si>
+    <t>3 سال</t>
+  </si>
+  <si>
+    <t>زبان‌شناسی زبان‌های رایج دنیا</t>
+  </si>
+  <si>
+    <t>شهدای معلم</t>
   </si>
 </sst>
 </file>
@@ -812,6 +839,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A9AD-486E-AB9E-69F514770909}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -827,6 +859,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A9AD-486E-AB9E-69F514770909}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -842,6 +879,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A9AD-486E-AB9E-69F514770909}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1202,6 +1244,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BF02-48EE-9BA2-8449884481A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1217,6 +1264,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BF02-48EE-9BA2-8449884481A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1498,6 +1550,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4D44-48C9-9321-F110D19B1D24}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1513,6 +1570,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4D44-48C9-9321-F110D19B1D24}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1528,6 +1590,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4D44-48C9-9321-F110D19B1D24}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4208,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4347,7 +4414,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="19">
-        <v>4.1666666666666664E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>18</v>
@@ -4385,7 +4452,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="19">
-        <v>4.6527777777777779E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>21</v>
@@ -4410,8 +4477,14 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>87</v>
@@ -4621,7 +4694,9 @@
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19">
+        <v>3.125E-2</v>
+      </c>
       <c r="K10" s="4" t="s">
         <v>34</v>
       </c>
@@ -4654,7 +4729,9 @@
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19">
+        <v>3.125E-2</v>
+      </c>
       <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
@@ -4693,6 +4770,9 @@
       <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="N12" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -4763,6 +4843,9 @@
       <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="N14" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
@@ -4834,7 +4917,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="19">
-        <v>5.8333333333333327E-2</v>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>46</v>
@@ -4883,6 +4966,9 @@
       <c r="L17" s="20" t="s">
         <v>85</v>
       </c>
+      <c r="N17" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
@@ -4921,6 +5007,9 @@
       <c r="L18" s="20" t="s">
         <v>85</v>
       </c>
+      <c r="N18" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
@@ -4959,6 +5048,9 @@
       <c r="L19" s="20" t="s">
         <v>85</v>
       </c>
+      <c r="N19" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
@@ -5011,12 +5103,32 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>155</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="K21" s="4" t="s">
         <v>143</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5029,6 +5141,9 @@
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>128</v>
       </c>
@@ -5044,34 +5159,109 @@
       <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="J22" s="19">
+        <v>3.888888888888889E-2</v>
+      </c>
       <c r="K22" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="N22" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="J23" s="28">
-        <f>SUM(J2:J21)</f>
-        <v>0.67013888888888895</v>
-      </c>
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="J24" s="1" t="s">
+      <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="19">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" s="28">
+        <f>SUM(J2:J24)</f>
+        <v>0.8979166666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K25" s="4" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="J26" s="1">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" s="1">
         <v>3.5</v>
       </c>
     </row>
@@ -5085,8 +5275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5094,7 +5284,7 @@
     <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
@@ -5313,6 +5503,9 @@
       <c r="I7" s="27">
         <v>3.0150462962962962E-2</v>
       </c>
+      <c r="L7" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -5365,6 +5558,9 @@
       <c r="K9" s="23" t="s">
         <v>78</v>
       </c>
+      <c r="L9" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
@@ -5376,6 +5572,9 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="F10" s="21" t="s">
         <v>14</v>
       </c>
@@ -5387,6 +5586,9 @@
       </c>
       <c r="I10" s="27">
         <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5407,6 +5609,9 @@
       </c>
       <c r="H11" s="21" t="s">
         <v>152</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
+++ b/فصل چهار/مشخصات مصاحبه شوندگان.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{29D20706-71AD-4D19-B36B-3F91F4E5E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DA0E14-9B71-424C-A31E-3908B6BAD745}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{29D20706-71AD-4D19-B36B-3F91F4E5E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8533BDB3-47DE-4757-BC04-4DE6FCE64468}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +582,12 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -615,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -623,11 +629,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
@@ -681,9 +715,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -716,6 +747,15 @@
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,13 +1005,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,10 +1716,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3580,6 +3620,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4290,17 +4334,17 @@
     <col min="5" max="5" width="15.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="25" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="4"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="21"/>
+    <col min="14" max="14" width="8.77734375" style="20"/>
     <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4313,7 +4357,7 @@
       <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -4322,29 +4366,29 @@
       <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>84</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4366,26 +4410,26 @@
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="30">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4407,23 +4451,23 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="31">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4445,26 +4489,26 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>140</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="31">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4486,26 +4530,26 @@
       <c r="G5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4527,26 +4571,26 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>139</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="31">
         <v>9.375E-2</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4568,26 +4612,26 @@
       <c r="G7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="31">
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4606,26 +4650,26 @@
       <c r="F8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="31">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4647,26 +4691,26 @@
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="31">
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4688,20 +4732,20 @@
       <c r="G10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="32">
         <v>3.125E-2</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4723,20 +4767,20 @@
       <c r="G11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="32">
         <v>3.125E-2</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4758,27 +4802,27 @@
       <c r="G12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4796,26 +4840,26 @@
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="24">
-        <v>6.6666666666666666E-2</v>
+      <c r="J13" s="31">
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4837,17 +4881,17 @@
       <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4869,26 +4913,26 @@
       <c r="G15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="31">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4910,26 +4954,26 @@
       <c r="G16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="31">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4951,26 +4995,26 @@
       <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="31">
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4992,26 +5036,26 @@
       <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>137</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="31">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5033,26 +5077,26 @@
       <c r="G19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="31">
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5074,26 +5118,26 @@
       <c r="G20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="31">
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5115,23 +5159,23 @@
       <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>155</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="32">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5153,23 +5197,23 @@
       <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>141</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="19">
-        <v>3.888888888888889E-2</v>
+      <c r="J22" s="32">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -5191,18 +5235,21 @@
       <c r="G23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>161</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J23" s="32">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="K23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.2" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -5224,24 +5271,24 @@
       <c r="G24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>140</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="32">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N24" s="20"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="J25" s="28">
+      <c r="J25" s="27">
         <f>SUM(J2:J24)</f>
-        <v>0.8979166666666667</v>
+        <v>0.91736111111111107</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5276,7 +5323,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5284,7 +5331,7 @@
     <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="20" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
@@ -5305,7 +5352,7 @@
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -5317,7 +5364,7 @@
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5352,13 +5399,13 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5381,13 +5428,13 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5410,16 +5457,16 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5442,10 +5489,10 @@
       <c r="H5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5462,19 +5509,19 @@
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5500,10 +5547,10 @@
       <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>3.0150462962962962E-2</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5526,7 +5573,7 @@
       <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5552,13 +5599,13 @@
       <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>4.0972222222222222E-2</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5572,19 +5619,19 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>149</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -5601,21 +5648,21 @@
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <f>SUM(I2:I10)</f>
         <v>0.25723379629629634</v>
       </c>
@@ -5632,13 +5679,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <f>I12-I6-I8-I5</f>
         <v>0.1891782407407408</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <f>I5+I6+I8</f>
         <v>6.8055555555555564E-2</v>
       </c>
@@ -5652,8 +5699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2D9F06-9A40-44FA-A5BA-64E5DC0107B7}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -5677,13 +5724,13 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="33.6" x14ac:dyDescent="0.3">
@@ -5715,10 +5762,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38" s="6">
         <v>3</v>
